--- a/sse/综合数据分析（天）/股市相关财经政策及国际利率.xlsx
+++ b/sse/综合数据分析（天）/股市相关财经政策及国际利率.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="66">
   <si>
     <t>公布时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,65 @@
  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国泰君安上调部分标的证券折算率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上调沪深</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分成份股折算率，并相应下调融资保证金比例。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰君安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【中信证券：信用账户融资保证金调整至0.6】中信证券2日发布消息，从即日起，信用账户融资保证金比例由0.7调整至0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -319,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +441,13 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2706,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2797,8 +2863,34 @@
         <v>60</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="2">
+        <v>42185</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" s="2">
+        <v>42187</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sse/综合数据分析（天）/股市相关财经政策及国际利率.xlsx
+++ b/sse/综合数据分析（天）/股市相关财经政策及国际利率.xlsx
@@ -2775,12 +2775,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
